--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\jbdimash\Documents\GitHub\codety-pearson\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E010918B-B0AD-4833-8048-DDD09B5B219D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">actividad!$B$1:$P$104</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -653,11 +659,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +715,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -755,7 +769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,9 +801,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,6 +853,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -996,14 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:P104"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -1017,13 +1067,13 @@
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -1060,20 +1110,20 @@
       <c r="L1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>179</v>
       </c>
       <c r="N1" t="s">
         <v>180</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="P1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1104,13 +1154,13 @@
       <c r="L2" t="s">
         <v>184</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>44479</v>
       </c>
       <c r="N2" t="s">
         <v>184</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>44479</v>
       </c>
       <c r="P2" t="e">
@@ -1118,7 +1168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1149,13 +1199,13 @@
       <c r="L3" t="s">
         <v>184</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>44480</v>
       </c>
       <c r="N3" t="s">
         <v>184</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>44480</v>
       </c>
       <c r="P3" t="e">
@@ -1163,7 +1213,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1194,13 +1244,13 @@
       <c r="L4" t="s">
         <v>184</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>44481</v>
       </c>
       <c r="N4" t="s">
         <v>184</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>44481</v>
       </c>
       <c r="P4">
@@ -1208,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1239,13 +1289,13 @@
       <c r="L5" t="s">
         <v>184</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>44482</v>
       </c>
       <c r="N5" t="s">
         <v>184</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>44482</v>
       </c>
       <c r="P5">
@@ -1253,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1284,13 +1334,13 @@
       <c r="L6" t="s">
         <v>184</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>44483</v>
       </c>
       <c r="N6" t="s">
         <v>184</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>44483</v>
       </c>
       <c r="P6">
@@ -1298,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1329,13 +1379,13 @@
       <c r="L7" t="s">
         <v>184</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>44484</v>
       </c>
       <c r="N7" t="s">
         <v>184</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>44484</v>
       </c>
       <c r="P7">
@@ -1343,7 +1393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1374,13 +1424,13 @@
       <c r="L8" t="s">
         <v>184</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>44485</v>
       </c>
       <c r="N8" t="s">
         <v>184</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>44485</v>
       </c>
       <c r="P8">
@@ -1388,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1419,13 +1469,13 @@
       <c r="L9" t="s">
         <v>184</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>44486</v>
       </c>
       <c r="N9" t="s">
         <v>184</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>44486</v>
       </c>
       <c r="P9">
@@ -1433,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1464,13 +1514,13 @@
       <c r="L10" t="s">
         <v>184</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>44487</v>
       </c>
       <c r="N10" t="s">
         <v>184</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>44487</v>
       </c>
       <c r="P10">
@@ -1478,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1509,13 +1559,13 @@
       <c r="L11" t="s">
         <v>184</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>44488</v>
       </c>
       <c r="N11" t="s">
         <v>184</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>44488</v>
       </c>
       <c r="P11">
@@ -1523,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1554,13 +1604,13 @@
       <c r="L12" t="s">
         <v>184</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>44489</v>
       </c>
       <c r="N12" t="s">
         <v>184</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>44489</v>
       </c>
       <c r="P12">
@@ -1568,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1599,13 +1649,13 @@
       <c r="L13" t="s">
         <v>184</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>44490</v>
       </c>
       <c r="N13" t="s">
         <v>184</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>44490</v>
       </c>
       <c r="P13">
@@ -1613,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1644,13 +1694,13 @@
       <c r="L14" t="s">
         <v>184</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>44491</v>
       </c>
       <c r="N14" t="s">
         <v>184</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>44491</v>
       </c>
       <c r="P14">
@@ -1658,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1689,13 +1739,13 @@
       <c r="L15" t="s">
         <v>184</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>44492</v>
       </c>
       <c r="N15" t="s">
         <v>184</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>44492</v>
       </c>
       <c r="P15">
@@ -1703,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1734,13 +1784,13 @@
       <c r="L16" t="s">
         <v>184</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>44493</v>
       </c>
       <c r="N16" t="s">
         <v>184</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>44493</v>
       </c>
       <c r="P16">
@@ -1748,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1779,13 +1829,13 @@
       <c r="L17" t="s">
         <v>184</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>44494</v>
       </c>
       <c r="N17" t="s">
         <v>184</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <v>44494</v>
       </c>
       <c r="P17">
@@ -1793,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1824,13 +1874,13 @@
       <c r="L18" t="s">
         <v>184</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>44495</v>
       </c>
       <c r="N18" t="s">
         <v>184</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>44495</v>
       </c>
       <c r="P18">
@@ -1838,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1869,13 +1919,13 @@
       <c r="L19" t="s">
         <v>184</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>44496</v>
       </c>
       <c r="N19" t="s">
         <v>184</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>44496</v>
       </c>
       <c r="P19">
@@ -1883,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1914,13 +1964,13 @@
       <c r="L20" t="s">
         <v>184</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>44497</v>
       </c>
       <c r="N20" t="s">
         <v>184</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>44497</v>
       </c>
       <c r="P20">
@@ -1928,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1959,13 +2009,13 @@
       <c r="L21" t="s">
         <v>184</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>44498</v>
       </c>
       <c r="N21" t="s">
         <v>184</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <v>44498</v>
       </c>
       <c r="P21">
@@ -1973,7 +2023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2004,13 +2054,13 @@
       <c r="L22" t="s">
         <v>184</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>44499</v>
       </c>
       <c r="N22" t="s">
         <v>184</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <v>44499</v>
       </c>
       <c r="P22">
@@ -2018,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2049,13 +2099,13 @@
       <c r="L23" t="s">
         <v>184</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>44500</v>
       </c>
       <c r="N23" t="s">
         <v>184</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
         <v>44500</v>
       </c>
       <c r="P23">
@@ -2063,7 +2113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2094,13 +2144,13 @@
       <c r="L24" t="s">
         <v>184</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>44501</v>
       </c>
       <c r="N24" t="s">
         <v>184</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <v>44501</v>
       </c>
       <c r="P24">
@@ -2108,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2139,13 +2189,13 @@
       <c r="L25" t="s">
         <v>184</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>44502</v>
       </c>
       <c r="N25" t="s">
         <v>184</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>44502</v>
       </c>
       <c r="P25">
@@ -2153,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2184,13 +2234,13 @@
       <c r="L26" t="s">
         <v>184</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="2">
         <v>44503</v>
       </c>
       <c r="N26" t="s">
         <v>184</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="2">
         <v>44503</v>
       </c>
       <c r="P26">
@@ -2198,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2229,13 +2279,13 @@
       <c r="L27" t="s">
         <v>184</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>44504</v>
       </c>
       <c r="N27" t="s">
         <v>184</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <v>44504</v>
       </c>
       <c r="P27">
@@ -2243,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2274,13 +2324,13 @@
       <c r="L28" t="s">
         <v>184</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="2">
         <v>44505</v>
       </c>
       <c r="N28" t="s">
         <v>184</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="2">
         <v>44505</v>
       </c>
       <c r="P28">
@@ -2288,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2319,13 +2369,13 @@
       <c r="L29" t="s">
         <v>184</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="2">
         <v>44506</v>
       </c>
       <c r="N29" t="s">
         <v>184</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="2">
         <v>44506</v>
       </c>
       <c r="P29">
@@ -2333,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2364,13 +2414,13 @@
       <c r="L30" t="s">
         <v>184</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="2">
         <v>44507</v>
       </c>
       <c r="N30" t="s">
         <v>184</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="2">
         <v>44507</v>
       </c>
       <c r="P30">
@@ -2378,7 +2428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2409,13 +2459,13 @@
       <c r="L31" t="s">
         <v>184</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="2">
         <v>44508</v>
       </c>
       <c r="N31" t="s">
         <v>184</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="2">
         <v>44508</v>
       </c>
       <c r="P31">
@@ -2423,7 +2473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2454,13 +2504,13 @@
       <c r="L32" t="s">
         <v>184</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="2">
         <v>44509</v>
       </c>
       <c r="N32" t="s">
         <v>184</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="2">
         <v>44509</v>
       </c>
       <c r="P32">
@@ -2468,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2499,13 +2549,13 @@
       <c r="L33" t="s">
         <v>184</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="2">
         <v>44510</v>
       </c>
       <c r="N33" t="s">
         <v>184</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="2">
         <v>44510</v>
       </c>
       <c r="P33">
@@ -2513,7 +2563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2544,13 +2594,13 @@
       <c r="L34" t="s">
         <v>184</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="2">
         <v>44511</v>
       </c>
       <c r="N34" t="s">
         <v>184</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="2">
         <v>44511</v>
       </c>
       <c r="P34">
@@ -2558,7 +2608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2589,13 +2639,13 @@
       <c r="L35" t="s">
         <v>184</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="2">
         <v>44512</v>
       </c>
       <c r="N35" t="s">
         <v>184</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="2">
         <v>44512</v>
       </c>
       <c r="P35">
@@ -2603,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2634,13 +2684,13 @@
       <c r="L36" t="s">
         <v>184</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="2">
         <v>44513</v>
       </c>
       <c r="N36" t="s">
         <v>184</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="2">
         <v>44513</v>
       </c>
       <c r="P36">
@@ -2648,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2679,13 +2729,13 @@
       <c r="L37" t="s">
         <v>184</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>44514</v>
       </c>
       <c r="N37" t="s">
         <v>184</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <v>44514</v>
       </c>
       <c r="P37">
@@ -2693,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2724,13 +2774,13 @@
       <c r="L38" t="s">
         <v>184</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="2">
         <v>44515</v>
       </c>
       <c r="N38" t="s">
         <v>184</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="2">
         <v>44515</v>
       </c>
       <c r="P38">
@@ -2738,7 +2788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2769,13 +2819,13 @@
       <c r="L39" t="s">
         <v>184</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="2">
         <v>44516</v>
       </c>
       <c r="N39" t="s">
         <v>184</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="2">
         <v>44516</v>
       </c>
       <c r="P39">
@@ -2783,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2814,13 +2864,13 @@
       <c r="L40" t="s">
         <v>184</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="2">
         <v>44517</v>
       </c>
       <c r="N40" t="s">
         <v>184</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="2">
         <v>44517</v>
       </c>
       <c r="P40">
@@ -2828,7 +2878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2859,13 +2909,13 @@
       <c r="L41" t="s">
         <v>184</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="2">
         <v>44518</v>
       </c>
       <c r="N41" t="s">
         <v>184</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <v>44518</v>
       </c>
       <c r="P41">
@@ -2873,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -2904,13 +2954,13 @@
       <c r="L42" t="s">
         <v>184</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="2">
         <v>44519</v>
       </c>
       <c r="N42" t="s">
         <v>184</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="2">
         <v>44519</v>
       </c>
       <c r="P42" t="e">
@@ -2918,7 +2968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2949,13 +2999,13 @@
       <c r="L43" t="s">
         <v>184</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="2">
         <v>44520</v>
       </c>
       <c r="N43" t="s">
         <v>184</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="2">
         <v>44520</v>
       </c>
       <c r="P43" t="e">
@@ -2963,7 +3013,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2994,13 +3044,13 @@
       <c r="L44" t="s">
         <v>184</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="2">
         <v>44521</v>
       </c>
       <c r="N44" t="s">
         <v>184</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <v>44521</v>
       </c>
       <c r="P44">
@@ -3008,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -3039,13 +3089,13 @@
       <c r="L45" t="s">
         <v>184</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="2">
         <v>44522</v>
       </c>
       <c r="N45" t="s">
         <v>184</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="2">
         <v>44522</v>
       </c>
       <c r="P45">
@@ -3053,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -3084,13 +3134,13 @@
       <c r="L46" t="s">
         <v>184</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="2">
         <v>44523</v>
       </c>
       <c r="N46" t="s">
         <v>184</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="2">
         <v>44523</v>
       </c>
       <c r="P46">
@@ -3098,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3129,13 +3179,13 @@
       <c r="L47" t="s">
         <v>184</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="2">
         <v>44524</v>
       </c>
       <c r="N47" t="s">
         <v>184</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="2">
         <v>44524</v>
       </c>
       <c r="P47">
@@ -3143,7 +3193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -3174,13 +3224,13 @@
       <c r="L48" t="s">
         <v>184</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="2">
         <v>44525</v>
       </c>
       <c r="N48" t="s">
         <v>184</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="2">
         <v>44525</v>
       </c>
       <c r="P48">
@@ -3188,7 +3238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -3219,13 +3269,13 @@
       <c r="L49" t="s">
         <v>184</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="2">
         <v>44526</v>
       </c>
       <c r="N49" t="s">
         <v>184</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="2">
         <v>44526</v>
       </c>
       <c r="P49">
@@ -3233,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -3264,13 +3314,13 @@
       <c r="L50" t="s">
         <v>184</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="2">
         <v>44527</v>
       </c>
       <c r="N50" t="s">
         <v>184</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="2">
         <v>44527</v>
       </c>
       <c r="P50">
@@ -3278,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -3309,13 +3359,13 @@
       <c r="L51" t="s">
         <v>184</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="2">
         <v>44528</v>
       </c>
       <c r="N51" t="s">
         <v>184</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="2">
         <v>44528</v>
       </c>
       <c r="P51">
@@ -3323,7 +3373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -3354,13 +3404,13 @@
       <c r="L52" t="s">
         <v>184</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="2">
         <v>44529</v>
       </c>
       <c r="N52" t="s">
         <v>184</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="2">
         <v>44529</v>
       </c>
       <c r="P52">
@@ -3368,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3399,13 +3449,13 @@
       <c r="L53" t="s">
         <v>184</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="2">
         <v>44530</v>
       </c>
       <c r="N53" t="s">
         <v>184</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="2">
         <v>44530</v>
       </c>
       <c r="P53">
@@ -3413,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3444,13 +3494,13 @@
       <c r="L54" t="s">
         <v>184</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="2">
         <v>44531</v>
       </c>
       <c r="N54" t="s">
         <v>184</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="2">
         <v>44531</v>
       </c>
       <c r="P54">
@@ -3458,7 +3508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3489,13 +3539,13 @@
       <c r="L55" t="s">
         <v>184</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="2">
         <v>44532</v>
       </c>
       <c r="N55" t="s">
         <v>184</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="2">
         <v>44532</v>
       </c>
       <c r="P55">
@@ -3503,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3534,13 +3584,13 @@
       <c r="L56" t="s">
         <v>184</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="2">
         <v>44533</v>
       </c>
       <c r="N56" t="s">
         <v>184</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="2">
         <v>44533</v>
       </c>
       <c r="P56">
@@ -3548,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3579,13 +3629,13 @@
       <c r="L57" t="s">
         <v>184</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="2">
         <v>44534</v>
       </c>
       <c r="N57" t="s">
         <v>184</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="2">
         <v>44534</v>
       </c>
       <c r="P57">
@@ -3593,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3624,13 +3674,13 @@
       <c r="L58" t="s">
         <v>184</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="2">
         <v>44535</v>
       </c>
       <c r="N58" t="s">
         <v>184</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="2">
         <v>44535</v>
       </c>
       <c r="P58">
@@ -3638,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -3669,13 +3719,13 @@
       <c r="L59" t="s">
         <v>184</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="2">
         <v>44536</v>
       </c>
       <c r="N59" t="s">
         <v>184</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="2">
         <v>44536</v>
       </c>
       <c r="P59">
@@ -3683,7 +3733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -3714,13 +3764,13 @@
       <c r="L60" t="s">
         <v>184</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="2">
         <v>44537</v>
       </c>
       <c r="N60" t="s">
         <v>184</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="2">
         <v>44537</v>
       </c>
       <c r="P60">
@@ -3728,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -3759,13 +3809,13 @@
       <c r="L61" t="s">
         <v>184</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="2">
         <v>44538</v>
       </c>
       <c r="N61" t="s">
         <v>184</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="2">
         <v>44538</v>
       </c>
       <c r="P61">
@@ -3773,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -3804,13 +3854,13 @@
       <c r="L62" t="s">
         <v>184</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="2">
         <v>44539</v>
       </c>
       <c r="N62" t="s">
         <v>184</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="2">
         <v>44539</v>
       </c>
       <c r="P62">
@@ -3818,7 +3868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -3849,13 +3899,13 @@
       <c r="L63" t="s">
         <v>184</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="2">
         <v>44540</v>
       </c>
       <c r="N63" t="s">
         <v>184</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="2">
         <v>44540</v>
       </c>
       <c r="P63">
@@ -3863,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3894,13 +3944,13 @@
       <c r="L64" t="s">
         <v>184</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="2">
         <v>44541</v>
       </c>
       <c r="N64" t="s">
         <v>184</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="2">
         <v>44541</v>
       </c>
       <c r="P64">
@@ -3908,7 +3958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
@@ -3939,13 +3989,13 @@
       <c r="L65" t="s">
         <v>184</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <v>44542</v>
       </c>
       <c r="N65" t="s">
         <v>184</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="2">
         <v>44542</v>
       </c>
       <c r="P65">
@@ -3953,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
@@ -3984,13 +4034,13 @@
       <c r="L66" t="s">
         <v>184</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="2">
         <v>44543</v>
       </c>
       <c r="N66" t="s">
         <v>184</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="2">
         <v>44543</v>
       </c>
       <c r="P66">
@@ -3998,7 +4048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -4029,13 +4079,13 @@
       <c r="L67" t="s">
         <v>184</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="2">
         <v>44544</v>
       </c>
       <c r="N67" t="s">
         <v>184</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="2">
         <v>44544</v>
       </c>
       <c r="P67">
@@ -4043,7 +4093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
@@ -4074,13 +4124,13 @@
       <c r="L68" t="s">
         <v>184</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="2">
         <v>44545</v>
       </c>
       <c r="N68" t="s">
         <v>184</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="2">
         <v>44545</v>
       </c>
       <c r="P68">
@@ -4088,7 +4138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -4119,13 +4169,13 @@
       <c r="L69" t="s">
         <v>184</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="2">
         <v>44546</v>
       </c>
       <c r="N69" t="s">
         <v>184</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="2">
         <v>44546</v>
       </c>
       <c r="P69">
@@ -4133,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -4164,13 +4214,13 @@
       <c r="L70" t="s">
         <v>184</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="2">
         <v>44547</v>
       </c>
       <c r="N70" t="s">
         <v>184</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="2">
         <v>44547</v>
       </c>
       <c r="P70">
@@ -4178,7 +4228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6</v>
       </c>
@@ -4209,13 +4259,13 @@
       <c r="L71" t="s">
         <v>184</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="2">
         <v>44548</v>
       </c>
       <c r="N71" t="s">
         <v>184</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="2">
         <v>44548</v>
       </c>
       <c r="P71">
@@ -4223,7 +4273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -4254,13 +4304,13 @@
       <c r="L72" t="s">
         <v>184</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="2">
         <v>44549</v>
       </c>
       <c r="N72" t="s">
         <v>184</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="2">
         <v>44549</v>
       </c>
       <c r="P72">
@@ -4268,7 +4318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -4299,13 +4349,13 @@
       <c r="L73" t="s">
         <v>184</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="2">
         <v>44550</v>
       </c>
       <c r="N73" t="s">
         <v>184</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="2">
         <v>44550</v>
       </c>
       <c r="P73">
@@ -4313,7 +4363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
@@ -4344,13 +4394,13 @@
       <c r="L74" t="s">
         <v>184</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="2">
         <v>44551</v>
       </c>
       <c r="N74" t="s">
         <v>184</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="2">
         <v>44551</v>
       </c>
       <c r="P74">
@@ -4358,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -4389,13 +4439,13 @@
       <c r="L75" t="s">
         <v>184</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="2">
         <v>44552</v>
       </c>
       <c r="N75" t="s">
         <v>184</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="2">
         <v>44552</v>
       </c>
       <c r="P75">
@@ -4403,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -4434,13 +4484,13 @@
       <c r="L76" t="s">
         <v>184</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="2">
         <v>44553</v>
       </c>
       <c r="N76" t="s">
         <v>184</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="2">
         <v>44553</v>
       </c>
       <c r="P76">
@@ -4448,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -4479,13 +4529,13 @@
       <c r="L77" t="s">
         <v>184</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="2">
         <v>44554</v>
       </c>
       <c r="N77" t="s">
         <v>184</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="2">
         <v>44554</v>
       </c>
       <c r="P77">
@@ -4493,7 +4543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6</v>
       </c>
@@ -4524,13 +4574,13 @@
       <c r="L78" t="s">
         <v>184</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="2">
         <v>44555</v>
       </c>
       <c r="N78" t="s">
         <v>184</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="2">
         <v>44555</v>
       </c>
       <c r="P78">
@@ -4538,7 +4588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -4569,13 +4619,13 @@
       <c r="L79" t="s">
         <v>184</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="2">
         <v>44556</v>
       </c>
       <c r="N79" t="s">
         <v>184</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="2">
         <v>44556</v>
       </c>
       <c r="P79">
@@ -4583,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -4614,13 +4664,13 @@
       <c r="L80" t="s">
         <v>184</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="2">
         <v>44557</v>
       </c>
       <c r="N80" t="s">
         <v>184</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="2">
         <v>44557</v>
       </c>
       <c r="P80">
@@ -4628,7 +4678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -4659,13 +4709,13 @@
       <c r="L81" t="s">
         <v>184</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="2">
         <v>44558</v>
       </c>
       <c r="N81" t="s">
         <v>184</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="2">
         <v>44558</v>
       </c>
       <c r="P81">
@@ -4673,7 +4723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -4704,13 +4754,13 @@
       <c r="L82" t="s">
         <v>184</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="2">
         <v>44559</v>
       </c>
       <c r="N82" t="s">
         <v>184</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="2">
         <v>44559</v>
       </c>
       <c r="P82">
@@ -4718,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -4749,13 +4799,13 @@
       <c r="L83" t="s">
         <v>184</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="2">
         <v>44560</v>
       </c>
       <c r="N83" t="s">
         <v>184</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="2">
         <v>44560</v>
       </c>
       <c r="P83">
@@ -4763,7 +4813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -4794,13 +4844,13 @@
       <c r="L84" t="s">
         <v>184</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="2">
         <v>44561</v>
       </c>
       <c r="N84" t="s">
         <v>184</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="2">
         <v>44561</v>
       </c>
       <c r="P84">
@@ -4808,7 +4858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -4839,13 +4889,13 @@
       <c r="L85" t="s">
         <v>184</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="2">
         <v>44562</v>
       </c>
       <c r="N85" t="s">
         <v>184</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="2">
         <v>44562</v>
       </c>
       <c r="P85">
@@ -4853,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -4884,13 +4934,13 @@
       <c r="L86" t="s">
         <v>184</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="2">
         <v>44563</v>
       </c>
       <c r="N86" t="s">
         <v>184</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="2">
         <v>44563</v>
       </c>
       <c r="P86">
@@ -4898,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -4929,13 +4979,13 @@
       <c r="L87" t="s">
         <v>184</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="2">
         <v>44564</v>
       </c>
       <c r="N87" t="s">
         <v>184</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="2">
         <v>44564</v>
       </c>
       <c r="P87">
@@ -4943,7 +4993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -4974,13 +5024,13 @@
       <c r="L88" t="s">
         <v>184</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="2">
         <v>44565</v>
       </c>
       <c r="N88" t="s">
         <v>184</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="2">
         <v>44565</v>
       </c>
       <c r="P88">
@@ -4988,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6</v>
       </c>
@@ -5019,13 +5069,13 @@
       <c r="L89" t="s">
         <v>184</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="2">
         <v>44566</v>
       </c>
       <c r="N89" t="s">
         <v>184</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="2">
         <v>44566</v>
       </c>
       <c r="P89">
@@ -5033,7 +5083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -5064,13 +5114,13 @@
       <c r="L90" t="s">
         <v>184</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="2">
         <v>44567</v>
       </c>
       <c r="N90" t="s">
         <v>184</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="2">
         <v>44567</v>
       </c>
       <c r="P90">
@@ -5078,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -5109,13 +5159,13 @@
       <c r="L91" t="s">
         <v>184</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="2">
         <v>44568</v>
       </c>
       <c r="N91" t="s">
         <v>184</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="2">
         <v>44568</v>
       </c>
       <c r="P91">
@@ -5123,7 +5173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6</v>
       </c>
@@ -5154,13 +5204,13 @@
       <c r="L92" t="s">
         <v>184</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="2">
         <v>44569</v>
       </c>
       <c r="N92" t="s">
         <v>184</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="2">
         <v>44569</v>
       </c>
       <c r="P92">
@@ -5168,7 +5218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -5199,13 +5249,13 @@
       <c r="L93" t="s">
         <v>184</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="2">
         <v>44570</v>
       </c>
       <c r="N93" t="s">
         <v>184</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="2">
         <v>44570</v>
       </c>
       <c r="P93">
@@ -5213,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -5244,13 +5294,13 @@
       <c r="L94" t="s">
         <v>184</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="2">
         <v>44571</v>
       </c>
       <c r="N94" t="s">
         <v>184</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="2">
         <v>44571</v>
       </c>
       <c r="P94">
@@ -5258,7 +5308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -5289,13 +5339,13 @@
       <c r="L95" t="s">
         <v>184</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="2">
         <v>44572</v>
       </c>
       <c r="N95" t="s">
         <v>184</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="2">
         <v>44572</v>
       </c>
       <c r="P95">
@@ -5303,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -5334,13 +5384,13 @@
       <c r="L96" t="s">
         <v>184</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="2">
         <v>44573</v>
       </c>
       <c r="N96" t="s">
         <v>184</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="2">
         <v>44573</v>
       </c>
       <c r="P96">
@@ -5348,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -5379,13 +5429,13 @@
       <c r="L97" t="s">
         <v>184</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="2">
         <v>44574</v>
       </c>
       <c r="N97" t="s">
         <v>184</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="2">
         <v>44574</v>
       </c>
       <c r="P97">
@@ -5393,7 +5443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -5424,13 +5474,13 @@
       <c r="L98" t="s">
         <v>184</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="2">
         <v>44575</v>
       </c>
       <c r="N98" t="s">
         <v>184</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="2">
         <v>44575</v>
       </c>
       <c r="P98">
@@ -5438,7 +5488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -5469,13 +5519,13 @@
       <c r="L99" t="s">
         <v>184</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="2">
         <v>44576</v>
       </c>
       <c r="N99" t="s">
         <v>184</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="2">
         <v>44576</v>
       </c>
       <c r="P99">
@@ -5483,7 +5533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -5514,13 +5564,13 @@
       <c r="L100" t="s">
         <v>184</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="2">
         <v>44577</v>
       </c>
       <c r="N100" t="s">
         <v>184</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="2">
         <v>44577</v>
       </c>
       <c r="P100">
@@ -5528,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6</v>
       </c>
@@ -5559,13 +5609,13 @@
       <c r="L101" t="s">
         <v>184</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="2">
         <v>44578</v>
       </c>
       <c r="N101" t="s">
         <v>184</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="2">
         <v>44578</v>
       </c>
       <c r="P101">
@@ -5573,7 +5623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6</v>
       </c>
@@ -5604,13 +5654,13 @@
       <c r="L102" t="s">
         <v>184</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="2">
         <v>44579</v>
       </c>
       <c r="N102" t="s">
         <v>184</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="2">
         <v>44579</v>
       </c>
       <c r="P102">
@@ -5618,7 +5668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -5649,13 +5699,13 @@
       <c r="L103" t="s">
         <v>184</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="2">
         <v>44580</v>
       </c>
       <c r="N103" t="s">
         <v>184</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="2">
         <v>44580</v>
       </c>
       <c r="P103" t="e">
@@ -5663,7 +5713,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6</v>
       </c>
@@ -5694,13 +5744,13 @@
       <c r="L104" t="s">
         <v>184</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="2">
         <v>44581</v>
       </c>
       <c r="N104" t="s">
         <v>184</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="2">
         <v>44581</v>
       </c>
       <c r="P104" t="e">
@@ -5715,19 +5765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5735,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
@@ -5743,7 +5793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>186</v>
       </c>
@@ -5751,7 +5801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>187</v>
       </c>
@@ -5759,7 +5809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>188</v>
       </c>
@@ -5767,7 +5817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>189</v>
       </c>
@@ -5775,7 +5825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>190</v>
       </c>
@@ -5789,14 +5839,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -5812,7 +5862,7 @@
     <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -5850,7 +5900,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -5882,7 +5932,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -5914,7 +5964,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -5946,7 +5996,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -5978,7 +6028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -6010,7 +6060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -6042,7 +6092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>193</v>
       </c>
@@ -6074,7 +6124,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -6106,7 +6156,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -6138,7 +6188,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -6170,7 +6220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -6202,7 +6252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -6234,7 +6284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -6266,7 +6316,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>193</v>
       </c>
@@ -6298,7 +6348,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -6330,7 +6380,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -6362,7 +6412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -6394,7 +6444,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -6426,7 +6476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -6458,7 +6508,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -6490,7 +6540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -6522,7 +6572,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -6554,7 +6604,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -6586,7 +6636,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>193</v>
       </c>
@@ -6618,7 +6668,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>193</v>
       </c>
@@ -6650,7 +6700,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -6682,7 +6732,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -6714,7 +6764,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -6746,7 +6796,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>193</v>
       </c>
@@ -6778,7 +6828,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>193</v>
       </c>
@@ -6810,7 +6860,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>193</v>
       </c>
@@ -6842,7 +6892,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -6874,7 +6924,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -6906,7 +6956,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>193</v>
       </c>
@@ -6938,7 +6988,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -6970,7 +7020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>193</v>
       </c>
@@ -7002,7 +7052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -7034,7 +7084,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -7066,7 +7116,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -7098,7 +7148,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -7130,7 +7180,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -7162,7 +7212,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -7194,7 +7244,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>193</v>
       </c>
@@ -7226,7 +7276,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>193</v>
       </c>
@@ -7258,7 +7308,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -7290,7 +7340,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>193</v>
       </c>
@@ -7322,7 +7372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -7354,7 +7404,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>193</v>
       </c>
@@ -7386,7 +7436,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -7418,7 +7468,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -7450,7 +7500,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -7482,7 +7532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -7514,7 +7564,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>193</v>
       </c>
@@ -7546,7 +7596,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>193</v>
       </c>
@@ -7578,7 +7628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -7610,7 +7660,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -7642,7 +7692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -7674,7 +7724,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -7706,7 +7756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -7738,7 +7788,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -7770,7 +7820,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -7802,7 +7852,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -7834,7 +7884,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -7866,7 +7916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -7898,7 +7948,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -7930,7 +7980,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -7962,7 +8012,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -7994,7 +8044,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -8026,7 +8076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>193</v>
       </c>
@@ -8058,7 +8108,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -8090,7 +8140,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -8122,7 +8172,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -8154,7 +8204,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -8186,7 +8236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -8218,7 +8268,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>193</v>
       </c>
@@ -8250,7 +8300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -8282,7 +8332,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>193</v>
       </c>
@@ -8314,7 +8364,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>193</v>
       </c>
@@ -8346,7 +8396,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -8378,7 +8428,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>193</v>
       </c>
@@ -8410,7 +8460,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>193</v>
       </c>
@@ -8442,7 +8492,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -8474,7 +8524,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>193</v>
       </c>
@@ -8506,7 +8556,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -8538,7 +8588,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -8570,7 +8620,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>193</v>
       </c>
@@ -8602,7 +8652,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>193</v>
       </c>
@@ -8634,7 +8684,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -8666,7 +8716,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -8698,7 +8748,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>193</v>
       </c>
@@ -8730,7 +8780,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -8762,7 +8812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -8794,7 +8844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>193</v>
       </c>
@@ -8826,7 +8876,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -8858,7 +8908,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>193</v>
       </c>
@@ -8890,7 +8940,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -8922,7 +8972,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -8960,14 +9010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N102" sqref="B102:N102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -8986,7 +9036,7 @@
     <col min="16" max="16" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>208</v>
       </c>
@@ -9039,7 +9089,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -9093,7 +9143,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -9147,7 +9197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -9200,7 +9250,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -9253,7 +9303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -9306,7 +9356,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -9359,7 +9409,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -9412,7 +9462,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -9465,7 +9515,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -9518,7 +9568,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -9571,7 +9621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -9624,7 +9674,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -9677,7 +9727,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -9730,7 +9780,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -9783,7 +9833,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -9836,7 +9886,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -9889,7 +9939,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -9942,7 +9992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -9995,7 +10045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -10048,7 +10098,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -10101,7 +10151,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -10154,7 +10204,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -10207,7 +10257,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -10260,7 +10310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -10313,7 +10363,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -10366,7 +10416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -10419,7 +10469,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -10472,7 +10522,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -10525,7 +10575,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -10578,7 +10628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -10631,7 +10681,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -10684,7 +10734,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -10737,7 +10787,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -10790,7 +10840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -10843,7 +10893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -10896,7 +10946,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -10949,7 +10999,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -11002,7 +11052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -11055,7 +11105,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -11108,7 +11158,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -11161,7 +11211,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -11215,7 +11265,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -11269,7 +11319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -11322,7 +11372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -11375,7 +11425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>208</v>
       </c>
@@ -11428,7 +11478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>208</v>
       </c>
@@ -11481,7 +11531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -11534,7 +11584,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -11587,7 +11637,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -11640,7 +11690,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -11693,7 +11743,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -11746,7 +11796,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -11799,7 +11849,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -11852,7 +11902,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -11905,7 +11955,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -11958,7 +12008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -12011,7 +12061,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -12064,7 +12114,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>208</v>
       </c>
@@ -12117,7 +12167,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>208</v>
       </c>
@@ -12170,7 +12220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>208</v>
       </c>
@@ -12223,7 +12273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>208</v>
       </c>
@@ -12276,7 +12326,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -12329,7 +12379,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -12382,7 +12432,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -12435,7 +12485,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -12488,7 +12538,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -12541,7 +12591,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>208</v>
       </c>
@@ -12594,7 +12644,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -12647,7 +12697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -12700,7 +12750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -12753,7 +12803,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>208</v>
       </c>
@@ -12806,7 +12856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -12859,7 +12909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -12912,7 +12962,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -12965,7 +13015,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -13018,7 +13068,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -13071,7 +13121,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -13124,7 +13174,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -13177,7 +13227,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>208</v>
       </c>
@@ -13230,7 +13280,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -13283,7 +13333,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>208</v>
       </c>
@@ -13336,7 +13386,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>208</v>
       </c>
@@ -13389,7 +13439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -13442,7 +13492,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>208</v>
       </c>
@@ -13495,7 +13545,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -13548,7 +13598,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>208</v>
       </c>
@@ -13601,7 +13651,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>208</v>
       </c>
@@ -13654,7 +13704,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>208</v>
       </c>
@@ -13707,7 +13757,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -13760,7 +13810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>208</v>
       </c>
@@ -13813,7 +13863,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>208</v>
       </c>
@@ -13866,7 +13916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>208</v>
       </c>
@@ -13919,7 +13969,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>208</v>
       </c>
@@ -13972,7 +14022,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>208</v>
       </c>
@@ -14025,7 +14075,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -14078,7 +14128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>208</v>
       </c>
@@ -14131,7 +14181,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -14184,7 +14234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -14237,7 +14287,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -14290,7 +14340,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -14343,7 +14393,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>208</v>
       </c>
@@ -14396,7 +14446,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>208</v>
       </c>
@@ -14450,7 +14500,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -14505,28 +14555,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P104"/>
+  <autoFilter ref="B1:P104" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>202</v>
       </c>
@@ -14534,7 +14584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14551,7 +14601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14568,7 +14618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14585,7 +14635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14602,7 +14652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14619,7 +14669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14636,7 +14686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
